--- a/medicine/Psychotrope/Oranjeboom/Oranjeboom.xlsx
+++ b/medicine/Psychotrope/Oranjeboom/Oranjeboom.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Oranjeboom est une marque néerlandaise de bière fondée en 1671. À l'origine, la brasserie se trouvait à Rotterdam, mais la production est transférée en 1990 à Bréda. Depuis le rachat de la marque par le groupe InBev, la bière est brassée dans la brasserie Dommelsch.
 </t>
@@ -511,7 +523,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'histoire de la brasserie remonte à 1671 avec la fusion de la brasserie De Dissel, qui se trouvait sur le Coolvest près du Delftse Poort, et la brasserie D'Orangienboom, qui s'était installée à Rotterdam la même année. Le nom De Dissel a été changé en d'Orangienboom en 1682. Au cours des années, plusieurs propriétaires se sont succédé.
 Le nom den Oranjeboom (en français : l'oranger) est donné en 1742 à l'occasion d'un changement de propriétaire.
@@ -550,7 +564,9 @@
           <t>Bières</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Oranjeboom Pilsener ;
 Oranjeboom Oud Bruin ;
@@ -583,7 +599,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">(nl) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en néerlandais intitulé « Oranjeboom (bier) » (voir la liste des auteurs).
 (nl) Site dédié
